--- a/va_facility_data_2025-02-20/Casper VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Casper%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Casper VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Casper%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbbc49ae085cc499bb748d06b1336cb5c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R17b0bb13a26f427fa6e6368bc6eafb3c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0ed3b3520d694daa8bfb3cbf90762909"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R770e82c4f57d4f52839e7e3ebd25bf54"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc170a2aaf95b43e090004babaff060ee"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2949021a089d49ffa7af05bbf81a7d31"/>
   </x:sheets>
 </x:workbook>
 </file>
